--- a/Excelam.Tests/Files/Cells/InitSetManyCellType.xlsx
+++ b/Excelam.Tests/Files/Cells/InitSetManyCellType.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a990f455bb745add/ProjetsDev/70-yvlawy/Excelam/Dev/ExcelamSol/Excelam.Tests/Files/Cells/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_F25DC773A252ABDACC1048F0A91D62385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A55F6C18-DB69-4078-A530-52A1BC032698}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="11_F25DC773A252ABDACC1048F0A91D62385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F14B30F-2652-4947-B4D6-BD5E7C88FBE0}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="120" windowWidth="16365" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="16365" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>hello</t>
   </si>
@@ -68,12 +68,33 @@
   </si>
   <si>
     <t>replace number 34 by number 567</t>
+  </si>
+  <si>
+    <t>replace general by number 55</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>replace dateshort by number 98</t>
+  </si>
+  <si>
+    <t>replace decimal by number, fill, style exists</t>
+  </si>
+  <si>
+    <t>replace xx by number, style not exists</t>
+  </si>
+  <si>
+    <t>style number exists</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +123,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,16 +153,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +541,44 @@
         <v>34</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="6">
+        <v>23.45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="6">
+        <v>45.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="7">
+        <v>56.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Excelam.Tests/Files/Cells/InitSetManyCellType.xlsx
+++ b/Excelam.Tests/Files/Cells/InitSetManyCellType.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a990f455bb745add/ProjetsDev/70-yvlawy/Excelam/Dev/ExcelamSol/Excelam.Tests/Files/Cells/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="11_F25DC773A252ABDACC1048F0A91D62385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F14B30F-2652-4947-B4D6-BD5E7C88FBE0}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_F25DC773A252ABDACC1048F0A91D62385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6037790-7746-4D4E-925D-DC58CA104FFE}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="16365" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="15900" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>hello</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>style number exists</t>
+  </si>
+  <si>
+    <t>cell empty, set decimal: 12,34</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +582,11 @@
         <v>56.78</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
